--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DADOS\CEFET\2024\cursoGestaoNegocios\PowerBI\dashboard1PetShop\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0E0FD6-A617-4702-9041-3B2427462311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B6EB6B8F-93FD-4030-9BCD-F8D18B8E893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -49,109 +49,109 @@
     <t>Gatito</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+filhote+Gatito.png</t>
-  </si>
-  <si>
     <t>Ração adulto 1kg</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+adulto+Gatito.png</t>
-  </si>
-  <si>
     <t>Ração sênior 1kg</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+s%C3%AAnior+Gatito.png</t>
-  </si>
-  <si>
     <t>Petisco</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Petisco+Gatito.png</t>
-  </si>
-  <si>
     <t>Ratinho</t>
   </si>
   <si>
     <t>Brinquedo</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Rato+Gatito.png</t>
-  </si>
-  <si>
     <t>Varinha</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Varinha+Gatito.png</t>
-  </si>
-  <si>
     <t>Roupa de inverno</t>
   </si>
   <si>
     <t>Roupa</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Roupa+de+inverno+Gatito.png</t>
-  </si>
-  <si>
     <t>Roupa de verão</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Roupa+de+ver%C3%A3o+Gatito.png</t>
-  </si>
-  <si>
     <t>Coleira</t>
   </si>
   <si>
     <t>Acessório</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Coleira+Gatito.png</t>
-  </si>
-  <si>
     <t>Guia</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Guia+Gatito.png</t>
-  </si>
-  <si>
     <t>Cachorrito</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+filhote+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+adulto+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Ra%C3%A7%C3%A3o+senior+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Petisco+Cachorrito.png</t>
-  </si>
-  <si>
     <t>Bolinha</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Bola+Cachorrito.png</t>
-  </si>
-  <si>
     <t>Osso</t>
   </si>
   <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Osso+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Roupa+de+inverno+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Roupa+de+ver%C3%A3o+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Coleira+Cachorrito.png</t>
-  </si>
-  <si>
-    <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Guia+Cachorrito.png</t>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Bfilhote%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Petisco%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Rato%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Varinha%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Roupa%2Bde%2Binverno%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Roupa%2Bde%2Bver%C3%A3o%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Coleira%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Guia%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Bfilhote%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Badulto%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Bsenior%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Petisco%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Bola%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Osso%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Roupa%2Bde%2Binverno%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Roupa%2Bde%2Bver%C3%A3o%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Coleira%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Guia%2BCachorrito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Badulto%2BGatito.png</t>
+  </si>
+  <si>
+    <t>https://github.com/rosanamassahud/cursoPowerBI_base1/blob/main/img_petshop/Ra%C3%A7%C3%A3o%2Bs%C3%AAnior%2BGatito.png</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +292,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -594,7 +602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -637,12 +645,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -672,6 +682,7 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -998,7 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,8 +1057,8 @@
       <c r="E2" s="1">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1064,8 +1077,8 @@
       <c r="E3" s="1">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1084,8 +1097,8 @@
       <c r="E4" s="1">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1104,8 +1117,8 @@
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1124,8 +1137,8 @@
       <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,10 +1146,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1144,8 +1157,8 @@
       <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1164,8 +1177,8 @@
       <c r="E8" s="1">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1184,8 +1197,8 @@
       <c r="E9" s="1">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1204,8 +1217,8 @@
       <c r="E10" s="1">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1224,8 +1237,8 @@
       <c r="E11" s="1">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,12 +1252,12 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1253,18 +1266,18 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1273,18 +1286,18 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1293,18 +1306,18 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>2.5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1313,19 +1326,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
-        <v>37</v>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,19 +1346,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,19 +1366,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="1">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,19 +1386,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1">
         <v>45</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,19 +1406,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
         <v>40</v>
       </c>
-      <c r="F20" t="s">
-        <v>42</v>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,22 +1426,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
-        <v>43</v>
+      <c r="F21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>